--- a/data/trans_orig/P1429-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Edad-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>3636</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9088</v>
+        <v>8812</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007778669269680793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001950004081924687</v>
+        <v>0.001952534152523585</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01943904023213028</v>
+        <v>0.01884925161845647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -778,19 +778,19 @@
         <v>3636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8262</v>
+        <v>8287</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00378184373403919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0009548328429225352</v>
+        <v>0.0009468762923786838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008592606521913116</v>
+        <v>0.008618265066208809</v>
       </c>
     </row>
     <row r="5">
@@ -820,19 +820,19 @@
         <v>463853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458401</v>
+        <v>458677</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466577</v>
+        <v>466576</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9922213307303193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9805609597678698</v>
+        <v>0.9811507483815446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9980499959180753</v>
+        <v>0.9980474658474764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>984</v>
@@ -841,19 +841,19 @@
         <v>957917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>953291</v>
+        <v>953266</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>960635</v>
+        <v>960643</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9962181562659608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9914073934780868</v>
+        <v>0.9913817349337911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9990451671570775</v>
+        <v>0.9990531237076213</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>3925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11087</v>
+        <v>11370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005336999295969023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001365059456604961</v>
+        <v>0.001371242644508331</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01507445394878158</v>
+        <v>0.01545876873547145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7086</v>
+        <v>6940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003135906035270036</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01132858466016178</v>
+        <v>0.01109567597758141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -987,19 +987,19 @@
         <v>5887</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14166</v>
+        <v>13245</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004325398998809528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00146252719853048</v>
+        <v>0.001467472820615016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01040894946475225</v>
+        <v>0.00973179474648342</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>731564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>724402</v>
+        <v>724119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>734485</v>
+        <v>734480</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.994663000704031</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9849255460512177</v>
+        <v>0.9845412312645286</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.998634940543395</v>
+        <v>0.9986287573554917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>589</v>
@@ -1037,7 +1037,7 @@
         <v>623533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>618408</v>
+        <v>618554</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1046,7 +1046,7 @@
         <v>0.99686409396473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9886714153398398</v>
+        <v>0.9889043240224186</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>1355095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1346816</v>
+        <v>1347737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1358992</v>
+        <v>1358985</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9956746010011904</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9895910505352481</v>
+        <v>0.9902682052535168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9985374728014695</v>
+        <v>0.998532527179385</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6655</v>
+        <v>7621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003339078099478088</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01042089339172114</v>
+        <v>0.0119330508770015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1183,19 +1183,19 @@
         <v>5201</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11555</v>
+        <v>11636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007541148078897453</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002852712004136912</v>
+        <v>0.002845868028757897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0167523735599876</v>
+        <v>0.01686949486117355</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1204,19 +1204,19 @@
         <v>7334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3074</v>
+        <v>3020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14906</v>
+        <v>14100</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005520896676251785</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00231441584587602</v>
+        <v>0.002273323074380261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01122058609630287</v>
+        <v>0.01061401355402985</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>636535</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>632013</v>
+        <v>631047</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>638668</v>
@@ -1242,7 +1242,7 @@
         <v>0.9966609219005219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.989579106608279</v>
+        <v>0.9880669491229985</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1254,19 +1254,19 @@
         <v>684543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>678189</v>
+        <v>678108</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687776</v>
+        <v>687781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9924588519211025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9832476264400125</v>
+        <v>0.9831305051388265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9971472879958631</v>
+        <v>0.9971541319712421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1264</v>
@@ -1275,19 +1275,19 @@
         <v>1321078</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1313506</v>
+        <v>1314312</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1325338</v>
+        <v>1325392</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9944791033237482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9887794139036972</v>
+        <v>0.9893859864459702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.997685584154124</v>
+        <v>0.9977266769256197</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6308</v>
+        <v>6422</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003507950906148343</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01215086495447075</v>
+        <v>0.01237051257716239</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1400,19 +1400,19 @@
         <v>14229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7833</v>
+        <v>8619</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23521</v>
+        <v>23315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02759541103488389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01519027963891723</v>
+        <v>0.01671580426437029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04561409406576992</v>
+        <v>0.04521524247185765</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1421,19 +1421,19 @@
         <v>16050</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9939</v>
+        <v>9666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26971</v>
+        <v>25582</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01551088626926752</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009605128573274288</v>
+        <v>0.009340994194451042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02606422852000653</v>
+        <v>0.02472198231220011</v>
       </c>
     </row>
     <row r="14">
@@ -1450,7 +1450,7 @@
         <v>517326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>512839</v>
+        <v>512725</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>519147</v>
@@ -1459,7 +1459,7 @@
         <v>0.9964920490938517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9878491350455293</v>
+        <v>0.9876294874228376</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1471,19 +1471,19 @@
         <v>501413</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>492121</v>
+        <v>492327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>507809</v>
+        <v>507023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9724045889651161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9543859059342303</v>
+        <v>0.9547847575281426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9848097203610828</v>
+        <v>0.9832841957356298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>969</v>
@@ -1492,19 +1492,19 @@
         <v>1018739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1007818</v>
+        <v>1009207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1024850</v>
+        <v>1025123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9844891137307324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9739357714799934</v>
+        <v>0.9752780176877999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9903948714267258</v>
+        <v>0.990659005805549</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>7643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3175</v>
+        <v>3140</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15500</v>
+        <v>15526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01976449806973987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008209297833002307</v>
+        <v>0.008119222874614206</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04008071446106124</v>
+        <v>0.04014834576990103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1617,19 +1617,19 @@
         <v>34107</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24213</v>
+        <v>23473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46810</v>
+        <v>45680</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08442685788697661</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05993623687464923</v>
+        <v>0.05810265413286336</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1158693372213625</v>
+        <v>0.1130731013571551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1638,19 +1638,19 @@
         <v>41750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30212</v>
+        <v>29330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56272</v>
+        <v>55228</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05280208301544998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03820952096924879</v>
+        <v>0.03709441539777133</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07116733467731681</v>
+        <v>0.06984727712190419</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>379067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>371210</v>
+        <v>371184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383535</v>
+        <v>383570</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9802355019302601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9599192855389387</v>
+        <v>0.9598516542300993</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917907021669976</v>
+        <v>0.9918807771253858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>363</v>
@@ -1688,19 +1688,19 @@
         <v>369879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>357176</v>
+        <v>358306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>379773</v>
+        <v>380513</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9155731421130234</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8841306627786376</v>
+        <v>0.8869268986428448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9400637631253508</v>
+        <v>0.9418973458671367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>748</v>
@@ -1709,19 +1709,19 @@
         <v>748946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>734424</v>
+        <v>735468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>760484</v>
+        <v>761366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.94719791698455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9288326653226834</v>
+        <v>0.9301527228780956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9617904790307513</v>
+        <v>0.9629055846022284</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>8336</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3942</v>
+        <v>3827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14696</v>
+        <v>15432</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02849227474242257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01347232518027553</v>
+        <v>0.01308024357003778</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05022730970145237</v>
+        <v>0.05274530640021469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1834,19 +1834,19 @@
         <v>40847</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30058</v>
+        <v>30200</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51863</v>
+        <v>53296</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1191099613057548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08765079066169519</v>
+        <v>0.08806347981385126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1512326464229101</v>
+        <v>0.1554105155542414</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -1855,19 +1855,19 @@
         <v>49183</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36941</v>
+        <v>37824</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63685</v>
+        <v>65236</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0773908654522947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05812758769986286</v>
+        <v>0.05951698320714455</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1002097849924603</v>
+        <v>0.1026498151246455</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>284247</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277887</v>
+        <v>277151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>288641</v>
+        <v>288756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9715077252575774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9497726902985477</v>
+        <v>0.9472546935997853</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9865276748197245</v>
+        <v>0.9869197564299622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>328</v>
@@ -1905,19 +1905,19 @@
         <v>302087</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>291071</v>
+        <v>289638</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>312876</v>
+        <v>312734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8808900386942452</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.84876735357709</v>
+        <v>0.8445894844457587</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9123492093383048</v>
+        <v>0.9119365201861488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>622</v>
@@ -1926,19 +1926,19 @@
         <v>586334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>571832</v>
+        <v>570281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>598576</v>
+        <v>597693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9226091345477053</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8997902150075396</v>
+        <v>0.8973501848753543</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9418724123001371</v>
+        <v>0.9404830167928554</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>9968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5391</v>
+        <v>5316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17657</v>
+        <v>17473</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04749165602291724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02568391611779712</v>
+        <v>0.02533050470554177</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08412646147590105</v>
+        <v>0.08324992256211208</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2051,19 +2051,19 @@
         <v>45308</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33796</v>
+        <v>32905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58786</v>
+        <v>59247</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1356912805658243</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1012134103244651</v>
+        <v>0.09854580189949214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1760557980840042</v>
+        <v>0.1774340683983917</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2072,19 +2072,19 @@
         <v>55276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42089</v>
+        <v>41982</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71521</v>
+        <v>72968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.10164952109027</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07739972538119283</v>
+        <v>0.07720159002738602</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.131522095370385</v>
+        <v>0.1341836534692156</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>199915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>192226</v>
+        <v>192410</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>204492</v>
+        <v>204567</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9525083439770827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9158735385240989</v>
+        <v>0.9167500774378866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9743160838822027</v>
+        <v>0.9746694952944582</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>251</v>
@@ -2122,19 +2122,19 @@
         <v>288600</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>275122</v>
+        <v>274661</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>300112</v>
+        <v>301003</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8643087194341756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8239442019159954</v>
+        <v>0.8225659316016078</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8987865896755348</v>
+        <v>0.9014541981005079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>460</v>
@@ -2143,19 +2143,19 @@
         <v>488515</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>472270</v>
+        <v>470823</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>501702</v>
+        <v>501809</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.89835047890973</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8684779046296149</v>
+        <v>0.8658163465307843</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9226002746188072</v>
+        <v>0.922798409972614</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>33826</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01032374069643581</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>141</v>
@@ -2268,19 +2268,19 @@
         <v>145291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04299579756607409</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>175</v>
@@ -2289,19 +2289,19 @@
         <v>179117</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02691172583257259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3242717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3229476</v>
+        <v>3230886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3253174</v>
+        <v>3252703</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9896762593035642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9856352156701335</v>
+        <v>0.986065554047194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9928677975117436</v>
+        <v>0.9927239578360562</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3156</v>
@@ -2339,19 +2339,19 @@
         <v>3233906</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3209625</v>
+        <v>3210786</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3255784</v>
+        <v>3256275</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9570042024339259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9498187551377812</v>
+        <v>0.9501622751809693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9634787033427523</v>
+        <v>0.9636239166389783</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6336</v>
@@ -2360,19 +2360,19 @@
         <v>6476624</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6445661</v>
+        <v>6450091</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6500317</v>
+        <v>6502716</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9730882741674274</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9684362780766735</v>
+        <v>0.9691018989289107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9766481202562338</v>
+        <v>0.9770085897298048</v>
       </c>
     </row>
     <row r="27">
@@ -2889,19 +2889,19 @@
         <v>4408</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11992</v>
+        <v>12292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00722348773832562</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001539264380181741</v>
+        <v>0.001562197379396746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01965087388737009</v>
+        <v>0.02014169667226108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -2910,19 +2910,19 @@
         <v>4408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11801</v>
+        <v>13552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003397848013821329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007247432593170594</v>
+        <v>0.000733867598349423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009096232333854763</v>
+        <v>0.01044597819173128</v>
       </c>
     </row>
     <row r="8">
@@ -2952,19 +2952,19 @@
         <v>605847</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>598263</v>
+        <v>597963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609316</v>
+        <v>609302</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9927765122616744</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.98034912611263</v>
+        <v>0.9798583033277389</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984607356198183</v>
+        <v>0.9984378026206032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1235</v>
@@ -2973,19 +2973,19 @@
         <v>1292934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1285541</v>
+        <v>1283790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1296402</v>
+        <v>1296390</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9966021519861786</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9909037676661449</v>
+        <v>0.9895540218082685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.999275256740683</v>
+        <v>0.9992661324016506</v>
       </c>
     </row>
     <row r="9">
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6751</v>
+        <v>6845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00272330070589215</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009513506854507303</v>
+        <v>0.009646654621135098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8148</v>
+        <v>7237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001388768727122865</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00585563190400558</v>
+        <v>0.005200826287128208</v>
       </c>
     </row>
     <row r="11">
@@ -3153,7 +3153,7 @@
         <v>707642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702823</v>
+        <v>702729</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>709574</v>
@@ -3162,7 +3162,7 @@
         <v>0.9972766992941079</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9904864931454928</v>
+        <v>0.990353345378865</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>1389505</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1383289</v>
+        <v>1384200</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1391437</v>
@@ -3183,7 +3183,7 @@
         <v>0.9986112312728771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9941443680959938</v>
+        <v>0.9947991737128712</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5039</v>
+        <v>5075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001638142657253079</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008199095763789126</v>
+        <v>0.008256423691202225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3299,19 +3299,19 @@
         <v>13769</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7488</v>
+        <v>7478</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23863</v>
+        <v>23079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02241592853210373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01219016808973608</v>
+        <v>0.01217440796613052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03884791250773383</v>
+        <v>0.03757122920068375</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3320,19 +3320,19 @@
         <v>14776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8461</v>
+        <v>8366</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24029</v>
+        <v>24218</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01202405280234227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006885049250772724</v>
+        <v>0.006807593614639601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01955393766699537</v>
+        <v>0.01970706847211015</v>
       </c>
     </row>
     <row r="14">
@@ -3349,7 +3349,7 @@
         <v>613610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>609578</v>
+        <v>609542</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>614617</v>
@@ -3358,7 +3358,7 @@
         <v>0.998361857342747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9918009042362111</v>
+        <v>0.9917435763087978</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3370,19 +3370,19 @@
         <v>600495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590401</v>
+        <v>591185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606776</v>
+        <v>606786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9775840714678963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9611520874922663</v>
+        <v>0.9624287707993162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9878098319102639</v>
+        <v>0.9878255920338694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1072</v>
@@ -3391,19 +3391,19 @@
         <v>1214104</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1204851</v>
+        <v>1204662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1220419</v>
+        <v>1220514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9879759471976577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9804460623330045</v>
+        <v>0.9802929315278897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9931149507492273</v>
+        <v>0.9931924063853603</v>
       </c>
     </row>
     <row r="15">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4907</v>
+        <v>4971</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002288831336844519</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01142781526570724</v>
+        <v>0.01157477578784883</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3516,19 +3516,19 @@
         <v>35757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25030</v>
+        <v>25651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49185</v>
+        <v>49657</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07985026608129522</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05589460680981362</v>
+        <v>0.05728315359104658</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1098374034492157</v>
+        <v>0.1108917583038641</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -3537,19 +3537,19 @@
         <v>36740</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25987</v>
+        <v>26322</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50834</v>
+        <v>50188</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04188169038005191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02962447214313357</v>
+        <v>0.03000614401929596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05794883796751589</v>
+        <v>0.05721143936531455</v>
       </c>
     </row>
     <row r="17">
@@ -3566,7 +3566,7 @@
         <v>428446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>424522</v>
+        <v>424458</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>429429</v>
@@ -3575,7 +3575,7 @@
         <v>0.9977111686631555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9885721847342929</v>
+        <v>0.9884252242121512</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3587,19 +3587,19 @@
         <v>412043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398615</v>
+        <v>398143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>422770</v>
+        <v>422149</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9201497339187048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8901625965507842</v>
+        <v>0.8891082416961358</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9441053931901863</v>
+        <v>0.9427168464089534</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>764</v>
@@ -3608,19 +3608,19 @@
         <v>840489</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>826395</v>
+        <v>827041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>851242</v>
+        <v>850907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9581183096199481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.942051162032484</v>
+        <v>0.9427885606346855</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9703755278568664</v>
+        <v>0.9699938559807046</v>
       </c>
     </row>
     <row r="18">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5388</v>
+        <v>4860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003455922465373875</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01739328896687725</v>
+        <v>0.01568939908023351</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -3733,19 +3733,19 @@
         <v>31772</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21382</v>
+        <v>22281</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43328</v>
+        <v>44554</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08975285741061952</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06040288925899202</v>
+        <v>0.06294144081719967</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1223957458870223</v>
+        <v>0.1258599349916764</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3754,19 +3754,19 @@
         <v>32843</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22232</v>
+        <v>22438</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45935</v>
+        <v>46514</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04947820296235359</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03349304358799228</v>
+        <v>0.0338038554471224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06920133216404363</v>
+        <v>0.07007458950956523</v>
       </c>
     </row>
     <row r="20">
@@ -3783,7 +3783,7 @@
         <v>308715</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>304398</v>
+        <v>304926</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>309786</v>
@@ -3792,7 +3792,7 @@
         <v>0.9965440775346261</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9826067110331228</v>
+        <v>0.9843106009197686</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3804,19 +3804,19 @@
         <v>322224</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>310668</v>
+        <v>309442</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>332614</v>
+        <v>331715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9102471425893804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8776042541129778</v>
+        <v>0.8741400650083236</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9395971107410082</v>
+        <v>0.9370585591828003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>596</v>
@@ -3825,19 +3825,19 @@
         <v>630939</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>617847</v>
+        <v>617268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>641550</v>
+        <v>641344</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9505217970376464</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9307986678359561</v>
+        <v>0.929925410490435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9665069564120076</v>
+        <v>0.9661961445528776</v>
       </c>
     </row>
     <row r="21">
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13443</v>
+        <v>13963</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01328003403496887</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05401911095774931</v>
+        <v>0.05610907975105544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -3950,19 +3950,19 @@
         <v>54726</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41587</v>
+        <v>41750</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70418</v>
+        <v>70860</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1410933932586408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1072186437659601</v>
+        <v>0.1076395865154991</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1815500061285228</v>
+        <v>0.1826889471294817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -3971,19 +3971,19 @@
         <v>58031</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42885</v>
+        <v>43716</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74043</v>
+        <v>74268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09114023942463033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0673529177479735</v>
+        <v>0.0686587795533983</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.11628833351467</v>
+        <v>0.1166417962945153</v>
       </c>
     </row>
     <row r="23">
@@ -4000,7 +4000,7 @@
         <v>245543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235405</v>
+        <v>234885</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>248848</v>
@@ -4009,7 +4009,7 @@
         <v>0.9867199659650311</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9459808890422501</v>
+        <v>0.9438909202489432</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4021,19 +4021,19 @@
         <v>333144</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317452</v>
+        <v>317010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>346283</v>
+        <v>346120</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8589066067413592</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8184499938714772</v>
+        <v>0.8173110528705181</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8927813562340399</v>
+        <v>0.8923604134845007</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>518</v>
@@ -4042,19 +4042,19 @@
         <v>578687</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>562675</v>
+        <v>562450</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>593833</v>
+        <v>593002</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9088597605753697</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8837116664853297</v>
+        <v>0.8833582037054846</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.932647082252026</v>
+        <v>0.9313412204466009</v>
       </c>
     </row>
     <row r="24">
@@ -4146,19 +4146,19 @@
         <v>6365</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2121</v>
+        <v>2071</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15978</v>
+        <v>15085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001857980992341845</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0006192568244538974</v>
+        <v>0.0006046514020580281</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.004663975325631471</v>
+        <v>0.004403482314042685</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>131</v>
@@ -4167,19 +4167,19 @@
         <v>142365</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121090</v>
+        <v>121671</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167221</v>
+        <v>170056</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04005776929663026</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03407161122188817</v>
+        <v>0.03423517920016689</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04705158672073516</v>
+        <v>0.0478492344442449</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>136</v>
@@ -4188,19 +4188,19 @@
         <v>148730</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125193</v>
+        <v>124705</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>175174</v>
+        <v>173763</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02130872822982653</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01793659854298748</v>
+        <v>0.01786669660851987</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0250974546837845</v>
+        <v>0.02489529401307068</v>
       </c>
     </row>
     <row r="26">
@@ -4217,19 +4217,19 @@
         <v>3419411</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3409798</v>
+        <v>3410691</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3423655</v>
+        <v>3423705</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9981420190076582</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9953360246743689</v>
+        <v>0.9955965176859574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.999380743175546</v>
+        <v>0.999395348597942</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3164</v>
@@ -4238,19 +4238,19 @@
         <v>3411625</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3386769</v>
+        <v>3383934</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3432900</v>
+        <v>3432319</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9599422307033697</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9529484132792652</v>
+        <v>0.9521507655557551</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9659283887781119</v>
+        <v>0.9657648207998332</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6367</v>
@@ -4259,19 +4259,19 @@
         <v>6831036</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6804592</v>
+        <v>6806003</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6854573</v>
+        <v>6855061</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9786912717701735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9749025453162155</v>
+        <v>0.9751047059869293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9820634014570125</v>
+        <v>0.9821333033914801</v>
       </c>
     </row>
     <row r="27">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4621</v>
+        <v>4759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001376237757042381</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006906262876149478</v>
+        <v>0.007111844188014896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4965,19 +4965,19 @@
         <v>3750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>939</v>
+        <v>983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8583</v>
+        <v>9387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005670358271831257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001419359134125153</v>
+        <v>0.001485547731103086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01297668105294054</v>
+        <v>0.01419283295343177</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4986,19 +4986,19 @@
         <v>4671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10280</v>
+        <v>10260</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003510855377038589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001369732928757526</v>
+        <v>0.001382156853972294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007726607182864726</v>
+        <v>0.007711645961545432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         <v>668176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664476</v>
+        <v>664338</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -5024,7 +5024,7 @@
         <v>0.9986237622429576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9930937371238505</v>
+        <v>0.9928881558119852</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5036,19 +5036,19 @@
         <v>657636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>652803</v>
+        <v>651999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660447</v>
+        <v>660403</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9943296417281687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9870233189470595</v>
+        <v>0.9858071670465681</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985806408658748</v>
+        <v>0.9985144522688969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1298</v>
@@ -5057,19 +5057,19 @@
         <v>1325812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1320203</v>
+        <v>1320223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328661</v>
+        <v>1328644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9964891446229615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9922733928171352</v>
+        <v>0.9922883540384548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986302670712425</v>
+        <v>0.9986178431460276</v>
       </c>
     </row>
     <row r="12">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6733</v>
+        <v>7646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00344368678005538</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01042122348463924</v>
+        <v>0.0118352060599278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5182,19 +5182,19 @@
         <v>7380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14771</v>
+        <v>14555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01137071589993294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004839728501494831</v>
+        <v>0.004836917484766923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02275749954502817</v>
+        <v>0.02242361519543522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -5203,19 +5203,19 @@
         <v>9605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4328</v>
+        <v>4357</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17214</v>
+        <v>18650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007416469989636259</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003341499991037129</v>
+        <v>0.003364189324732566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01329132984830743</v>
+        <v>0.0144001853907369</v>
       </c>
     </row>
     <row r="14">
@@ -5232,7 +5232,7 @@
         <v>643823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>639315</v>
+        <v>638402</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>646048</v>
@@ -5241,7 +5241,7 @@
         <v>0.9965563132199446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.989578776515361</v>
+        <v>0.9881647939400717</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5253,19 +5253,19 @@
         <v>641697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>634306</v>
+        <v>634522</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645936</v>
+        <v>645937</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9886292841000671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9772425004549717</v>
+        <v>0.9775763848045651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951602714985052</v>
+        <v>0.9951630825152331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1175</v>
@@ -5274,19 +5274,19 @@
         <v>1285520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1277911</v>
+        <v>1276475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1290797</v>
+        <v>1290768</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9925835300103637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9867086701516926</v>
+        <v>0.9855998146092636</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9966585000089629</v>
+        <v>0.9966358106752675</v>
       </c>
     </row>
     <row r="15">
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7865</v>
+        <v>6932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004591019132138963</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01645603130086437</v>
+        <v>0.01450364063934173</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -5399,19 +5399,19 @@
         <v>22869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13858</v>
+        <v>14333</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34410</v>
+        <v>34441</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0460282129455883</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02789142155356153</v>
+        <v>0.02884853382195883</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06925710684820315</v>
+        <v>0.069319848652245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -5420,19 +5420,19 @@
         <v>25063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15664</v>
+        <v>16194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36777</v>
+        <v>37364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02571199303613029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01606916053358409</v>
+        <v>0.01661368443021901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03772925116309465</v>
+        <v>0.03833106779787793</v>
       </c>
     </row>
     <row r="17">
@@ -5449,7 +5449,7 @@
         <v>475724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>470053</v>
+        <v>470986</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>477918</v>
@@ -5458,7 +5458,7 @@
         <v>0.995408980867861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9835439686991355</v>
+        <v>0.9854963593606583</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5470,19 +5470,19 @@
         <v>473980</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>462439</v>
+        <v>462408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>482991</v>
+        <v>482516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9539717870544117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9307428931517969</v>
+        <v>0.9306801513477551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9721085784464385</v>
+        <v>0.9711514661780412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>836</v>
@@ -5491,19 +5491,19 @@
         <v>949704</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>937990</v>
+        <v>937403</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>959103</v>
+        <v>958573</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9742880069638697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9622707488369054</v>
+        <v>0.9616689322021221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.983930839466416</v>
+        <v>0.9833863155697811</v>
       </c>
     </row>
     <row r="18">
@@ -5608,19 +5608,19 @@
         <v>43945</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33070</v>
+        <v>31391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57966</v>
+        <v>58239</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1163287393326396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08754148385135065</v>
+        <v>0.08309613818818343</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1534460291639508</v>
+        <v>0.1541688808850649</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -5629,19 +5629,19 @@
         <v>43945</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32027</v>
+        <v>32444</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57346</v>
+        <v>58354</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06171193810460766</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04497527289538023</v>
+        <v>0.04556165054290982</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0805313709688468</v>
+        <v>0.08194730740691336</v>
       </c>
     </row>
     <row r="20">
@@ -5671,19 +5671,19 @@
         <v>333817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>319796</v>
+        <v>319523</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>344692</v>
+        <v>346371</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8836712606673605</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8465539708360492</v>
+        <v>0.8458311191149351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9124585161486494</v>
+        <v>0.9169038618118166</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>637</v>
@@ -5692,19 +5692,19 @@
         <v>668147</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>654746</v>
+        <v>653738</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>680065</v>
+        <v>679648</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9382880618953924</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9194686290311532</v>
+        <v>0.9180526925930866</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9550247271046197</v>
+        <v>0.9544383494570902</v>
       </c>
     </row>
     <row r="21">
@@ -5796,19 +5796,19 @@
         <v>6432</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2517</v>
+        <v>2904</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12712</v>
+        <v>13038</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02502820661333423</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009792436940293687</v>
+        <v>0.01130141800085164</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04946231223332981</v>
+        <v>0.05073156419161237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -5817,19 +5817,19 @@
         <v>44219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32161</v>
+        <v>31093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60301</v>
+        <v>61228</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1104999367032262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08036823386840296</v>
+        <v>0.07769959082246863</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1506888570352075</v>
+        <v>0.1530047733444186</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -5838,19 +5838,19 @@
         <v>50651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37966</v>
+        <v>36282</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68640</v>
+        <v>68196</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07707454595155608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05777261551703251</v>
+        <v>0.05520913532861857</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1044487534957727</v>
+        <v>0.1037721957343185</v>
       </c>
     </row>
     <row r="23">
@@ -5867,19 +5867,19 @@
         <v>250566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>244286</v>
+        <v>243960</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254481</v>
+        <v>254094</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9749717933866657</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9505376877666702</v>
+        <v>0.9492684358083876</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9902075630597064</v>
+        <v>0.9886985819991483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>267</v>
@@ -5888,19 +5888,19 @@
         <v>355950</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>339868</v>
+        <v>338941</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>368008</v>
+        <v>369076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8895000632967738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8493111429647924</v>
+        <v>0.8469952266555806</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.919631766131597</v>
+        <v>0.9223004091775313</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>562</v>
@@ -5909,19 +5909,19 @@
         <v>606516</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>588527</v>
+        <v>588971</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>619201</v>
+        <v>620885</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9229254540484439</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8955512465042266</v>
+        <v>0.8962278042656817</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9422273844829674</v>
+        <v>0.9447908646713816</v>
       </c>
     </row>
     <row r="24">
@@ -6013,19 +6013,19 @@
         <v>11772</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6354</v>
+        <v>6235</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20127</v>
+        <v>21454</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00346810221009992</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001872001500148256</v>
+        <v>0.001836844618927144</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.00592957333690008</v>
+        <v>0.006320363296015131</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -6034,19 +6034,19 @@
         <v>122163</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101654</v>
+        <v>102000</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145094</v>
+        <v>148725</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03446511985398436</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02867905668324969</v>
+        <v>0.02877663781306042</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04093456380757648</v>
+        <v>0.04195886792158163</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>118</v>
@@ -6055,19 +6055,19 @@
         <v>133935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>109891</v>
+        <v>112935</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158719</v>
+        <v>159171</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01930207476147901</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01583692324514779</v>
+        <v>0.01627558797859439</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02287381985863342</v>
+        <v>0.0229389285757035</v>
       </c>
     </row>
     <row r="26">
@@ -6084,19 +6084,19 @@
         <v>3382578</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3374223</v>
+        <v>3372896</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3387996</v>
+        <v>3388115</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9965318977899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9940704266630997</v>
+        <v>0.993679636703985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9981279984998517</v>
+        <v>0.9981631553810729</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3232</v>
@@ -6105,19 +6105,19 @@
         <v>3422379</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3399448</v>
+        <v>3395817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3442888</v>
+        <v>3442542</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9655348801460156</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9590654361924235</v>
+        <v>0.9580411320784191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9713209433167502</v>
+        <v>0.9712233621869397</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6451</v>
@@ -6126,19 +6126,19 @@
         <v>6804957</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6780173</v>
+        <v>6779721</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6829001</v>
+        <v>6825957</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.980697925238521</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9771261801413664</v>
+        <v>0.9770610714242964</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9841630767548518</v>
+        <v>0.9837244120214055</v>
       </c>
     </row>
     <row r="27">
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15432</v>
+        <v>15511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009187006919440173</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03784322622718991</v>
+        <v>0.03803612754750899</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17092</v>
+        <v>15101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008498092589629736</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04714986896475245</v>
+        <v>0.04165725605912234</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24231</v>
+        <v>24478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00886279809036096</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03145698963983803</v>
+        <v>0.03177751614039632</v>
       </c>
     </row>
     <row r="5">
@@ -6544,7 +6544,7 @@
         <v>404047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392361</v>
+        <v>392282</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6553,7 +6553,7 @@
         <v>0.9908129930805599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9621567737728101</v>
+        <v>0.9619638724524909</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6565,16 +6565,16 @@
         <v>359431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345420</v>
+        <v>347411</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9915019074103704</v>
+        <v>0.9915019074103701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9528501310352476</v>
+        <v>0.9583427439408776</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6586,16 +6586,16 @@
         <v>763478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746074</v>
+        <v>745827</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9911372019096392</v>
+        <v>0.9911372019096389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9685430103601625</v>
+        <v>0.9682224838596054</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8057</v>
+        <v>6974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003675141453705564</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01300730728654102</v>
+        <v>0.01125936843918674</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6880,19 +6880,19 @@
         <v>1784</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4955</v>
+        <v>5373</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.002874767736721248</v>
+        <v>0.002874767736721249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0007791428689890191</v>
+        <v>0.0007783856350809909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007982713608786612</v>
+        <v>0.008655310756455427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -6901,19 +6901,19 @@
         <v>4061</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1520</v>
+        <v>1234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9681</v>
+        <v>10189</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003274541065360388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001225937539709751</v>
+        <v>0.000995381655847067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007806328992737237</v>
+        <v>0.008215861330815456</v>
       </c>
     </row>
     <row r="11">
@@ -6930,7 +6930,7 @@
         <v>617161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611381</v>
+        <v>612464</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>619438</v>
@@ -6939,7 +6939,7 @@
         <v>0.9963248585462944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.986992692713459</v>
+        <v>0.9887406315608132</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -6951,19 +6951,19 @@
         <v>618936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615765</v>
+        <v>615347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620236</v>
+        <v>620237</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9971252322632786</v>
+        <v>0.9971252322632789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9920172863912141</v>
+        <v>0.9913446892435445</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9992208571310109</v>
+        <v>0.9992216143649191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1384</v>
@@ -6972,19 +6972,19 @@
         <v>1236097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1230477</v>
+        <v>1229969</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1238638</v>
+        <v>1238924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9967254589346397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9921936710072625</v>
+        <v>0.9917841386691848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987740624602901</v>
+        <v>0.9990046183441529</v>
       </c>
     </row>
     <row r="12">
@@ -7076,19 +7076,19 @@
         <v>2698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8493</v>
+        <v>7958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003862463524600798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001068818906562778</v>
+        <v>0.001060479090892356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01216066920161587</v>
+        <v>0.0113948087950816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -7097,19 +7097,19 @@
         <v>11977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7462</v>
+        <v>7966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18687</v>
+        <v>19274</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01635560130909309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01019081824369105</v>
+        <v>0.0108783819469189</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0255193048455286</v>
+        <v>0.02632030020144838</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -7118,19 +7118,19 @@
         <v>14674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9824</v>
+        <v>9173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22184</v>
+        <v>20954</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01025696392269637</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00686698345912641</v>
+        <v>0.006411610249218928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01550630638574629</v>
+        <v>0.01464620717868037</v>
       </c>
     </row>
     <row r="14">
@@ -7147,19 +7147,19 @@
         <v>695695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>689900</v>
+        <v>690435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>697647</v>
+        <v>697652</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9961375364753992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9878393307983844</v>
+        <v>0.9886051912049184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9989311810934371</v>
+        <v>0.9989395209091075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1114</v>
@@ -7168,19 +7168,19 @@
         <v>720297</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>713587</v>
+        <v>713000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>724812</v>
+        <v>724308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9836443986909068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9744806951544712</v>
+        <v>0.9736796997985516</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9898091817563091</v>
+        <v>0.9891216180530811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1774</v>
@@ -7189,19 +7189,19 @@
         <v>1415992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1408482</v>
+        <v>1409712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1420842</v>
+        <v>1421493</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9897430360773036</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9844936936142537</v>
+        <v>0.98535379282132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9931330165408736</v>
+        <v>0.9935883897507813</v>
       </c>
     </row>
     <row r="15">
@@ -7293,19 +7293,19 @@
         <v>5487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2337</v>
+        <v>2353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10921</v>
+        <v>10967</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.009019807267694881</v>
+        <v>0.00901980726769488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003841022261674772</v>
+        <v>0.003867608598367252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01795117495150569</v>
+        <v>0.01802728029891316</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -7314,19 +7314,19 @@
         <v>39266</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30104</v>
+        <v>31046</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48669</v>
+        <v>49738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06508307029725206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0498968448187614</v>
+        <v>0.05145810287971368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08066837336452226</v>
+        <v>0.08244048977429172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -7335,19 +7335,19 @@
         <v>44753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34605</v>
+        <v>34134</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56162</v>
+        <v>55199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03693489124765439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02855954701982343</v>
+        <v>0.02817063543165031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04635013088754852</v>
+        <v>0.04555577860942252</v>
       </c>
     </row>
     <row r="17">
@@ -7364,19 +7364,19 @@
         <v>602872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>597438</v>
+        <v>597392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>606022</v>
+        <v>606006</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9909801927323053</v>
+        <v>0.9909801927323052</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9820488250484947</v>
+        <v>0.9819727197010867</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9961589777383253</v>
+        <v>0.9961323914016328</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>930</v>
@@ -7385,19 +7385,19 @@
         <v>564055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>554652</v>
+        <v>553583</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>573217</v>
+        <v>572275</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9349169297027479</v>
+        <v>0.9349169297027481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9193316266354778</v>
+        <v>0.9175595102257084</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9501031551812386</v>
+        <v>0.9485418971202862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1585</v>
@@ -7406,19 +7406,19 @@
         <v>1166927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1155518</v>
+        <v>1156481</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1177075</v>
+        <v>1177546</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9630651087523455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9536498691124515</v>
+        <v>0.9544442213905775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9714404529801767</v>
+        <v>0.9718293645683499</v>
       </c>
     </row>
     <row r="18">
@@ -7510,19 +7510,19 @@
         <v>6322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3298</v>
+        <v>3500</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11431</v>
+        <v>11871</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01561620554609329</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008145884295821509</v>
+        <v>0.008645968586408856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02823693491004813</v>
+        <v>0.02932383303754537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -7531,19 +7531,19 @@
         <v>44779</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36412</v>
+        <v>36103</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55353</v>
+        <v>55035</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1024265258734777</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08328655322798335</v>
+        <v>0.08258152362479854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1266131132449034</v>
+        <v>0.1258850113332219</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -7552,19 +7552,19 @@
         <v>51101</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41717</v>
+        <v>42228</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62571</v>
+        <v>63748</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06068875430907492</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04954332872282578</v>
+        <v>0.05014998792531841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0743099999104244</v>
+        <v>0.07570743189817256</v>
       </c>
     </row>
     <row r="20">
@@ -7581,19 +7581,19 @@
         <v>398518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>393409</v>
+        <v>392969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>401542</v>
+        <v>401340</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9843837944539067</v>
+        <v>0.9843837944539066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9717630650899519</v>
+        <v>0.9706761669624547</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9918541157041787</v>
+        <v>0.9913540314135911</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>742</v>
@@ -7602,19 +7602,19 @@
         <v>392407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>381833</v>
+        <v>382151</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>400774</v>
+        <v>401083</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8975734741265222</v>
+        <v>0.8975734741265224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8733868867550966</v>
+        <v>0.8741149886667781</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9167134467720166</v>
+        <v>0.9174184763752014</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1299</v>
@@ -7623,19 +7623,19 @@
         <v>790924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>779454</v>
+        <v>778277</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>800308</v>
+        <v>799797</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9393112456909252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9256900000895755</v>
+        <v>0.9242925681018272</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9504566712771743</v>
+        <v>0.9498500120746813</v>
       </c>
     </row>
     <row r="21">
@@ -7727,19 +7727,19 @@
         <v>8977</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4898</v>
+        <v>4648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15393</v>
+        <v>14993</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02899821715795717</v>
+        <v>0.02899821715795716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01582124779369409</v>
+        <v>0.01501259025067614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04971997061725135</v>
+        <v>0.04843002841222855</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -7748,19 +7748,19 @@
         <v>75886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64961</v>
+        <v>64965</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87642</v>
+        <v>88281</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1640037318406058</v>
+        <v>0.1640037318406057</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1403921187377611</v>
+        <v>0.1404009380227695</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1894104770242231</v>
+        <v>0.1907903119023821</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -7769,19 +7769,19 @@
         <v>84864</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72664</v>
+        <v>72105</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99677</v>
+        <v>97685</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1098848243966036</v>
+        <v>0.1098848243966035</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09408776212397213</v>
+        <v>0.09336398303616168</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1290658169927358</v>
+        <v>0.1264862632802838</v>
       </c>
     </row>
     <row r="23">
@@ -7798,19 +7798,19 @@
         <v>300609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>294193</v>
+        <v>294593</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304688</v>
+        <v>304938</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.971001782842043</v>
+        <v>0.9710017828420427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.950280029382749</v>
+        <v>0.9515699715877716</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9841787522063062</v>
+        <v>0.9849874097493238</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>727</v>
@@ -7819,19 +7819,19 @@
         <v>386824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>375068</v>
+        <v>374429</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>397749</v>
+        <v>397745</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8359962681593943</v>
+        <v>0.8359962681593942</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8105895229757769</v>
+        <v>0.809209688097618</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8596078812622391</v>
+        <v>0.8595990619772305</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1172</v>
@@ -7840,19 +7840,19 @@
         <v>687432</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>672619</v>
+        <v>674611</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>699632</v>
+        <v>700191</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8901151756033963</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8709341830072644</v>
+        <v>0.8735137367197161</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9059122378760281</v>
+        <v>0.9066360169638382</v>
       </c>
     </row>
     <row r="24">
@@ -7944,19 +7944,19 @@
         <v>29507</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19500</v>
+        <v>19710</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44772</v>
+        <v>44341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008370133203932506</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005531526574221012</v>
+        <v>0.005591106479811779</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01270021616072682</v>
+        <v>0.01257790876100922</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>321</v>
@@ -7965,19 +7965,19 @@
         <v>176773</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156312</v>
+        <v>159437</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>198111</v>
+        <v>197877</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04752222791806551</v>
+        <v>0.0475222279180655</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04202142501714563</v>
+        <v>0.04286162273564929</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05325849157586324</v>
+        <v>0.0531955348669183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>356</v>
@@ -7986,19 +7986,19 @@
         <v>206281</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>184936</v>
+        <v>185592</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>229583</v>
+        <v>231184</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02847173125594331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02552569029212231</v>
+        <v>0.02561622892697763</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03168795332212235</v>
+        <v>0.03190895019707982</v>
       </c>
     </row>
     <row r="26">
@@ -8015,19 +8015,19 @@
         <v>3495792</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3480527</v>
+        <v>3480958</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3505799</v>
+        <v>3505589</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9916298667960676</v>
+        <v>0.9916298667960677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9872997838392733</v>
+        <v>0.9874220912389909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.994468473425779</v>
+        <v>0.9944088935201884</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5020</v>
@@ -8036,19 +8036,19 @@
         <v>3543033</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3521695</v>
+        <v>3521929</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3563494</v>
+        <v>3560369</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9524777720819345</v>
+        <v>0.9524777720819344</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9467415084241364</v>
+        <v>0.9468044651330817</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9579785749828541</v>
+        <v>0.9571383772643507</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8353</v>
@@ -8057,19 +8057,19 @@
         <v>7038824</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7015522</v>
+        <v>7013921</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7060169</v>
+        <v>7059513</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9715282687440565</v>
+        <v>0.9715282687440567</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9683120466778776</v>
+        <v>0.9680910498029205</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9744743097078776</v>
+        <v>0.9743837710730224</v>
       </c>
     </row>
     <row r="27">
